--- a/teaching/traditional_assets/database/data/germany/germany_insurance_life.xlsx
+++ b/teaching/traditional_assets/database/data/germany/germany_insurance_life.xlsx
@@ -591,49 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.021</v>
+        <v>-0.0304</v>
       </c>
       <c r="E2">
-        <v>0.0244</v>
-      </c>
-      <c r="F2">
-        <v>-0.016</v>
+        <v>-0.04019999999999999</v>
       </c>
       <c r="G2">
-        <v>0.1554464251189049</v>
+        <v>0.1564073269638799</v>
       </c>
       <c r="H2">
-        <v>0.1554464251189049</v>
+        <v>0.1564073269638799</v>
       </c>
       <c r="I2">
-        <v>0.1478613140300677</v>
+        <v>0.1277573414018656</v>
       </c>
       <c r="J2">
-        <v>0.1024452361827463</v>
+        <v>0.08371787732601269</v>
       </c>
       <c r="K2">
-        <v>283.9</v>
+        <v>234.3</v>
       </c>
       <c r="L2">
-        <v>0.03659306806903574</v>
+        <v>0.02941582654329513</v>
       </c>
       <c r="M2">
-        <v>66.36239999999999</v>
+        <v>71.4931</v>
       </c>
       <c r="N2">
-        <v>0.03264099158919876</v>
+        <v>0.03776509428978923</v>
       </c>
       <c r="O2">
-        <v>0.2337527298344488</v>
+        <v>0.3051348698250106</v>
       </c>
       <c r="P2">
-        <v>66.36239999999999</v>
+        <v>71.4931</v>
       </c>
       <c r="Q2">
-        <v>0.03264099158919876</v>
+        <v>0.03776509428978923</v>
       </c>
       <c r="R2">
-        <v>0.2337527298344488</v>
+        <v>0.3051348698250106</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -642,73 +639,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>70.09999999999999</v>
+        <v>57.4</v>
       </c>
       <c r="V2">
-        <v>0.03447936648467857</v>
+        <v>0.03032063810680894</v>
       </c>
       <c r="W2">
-        <v>0.0582072415631279</v>
+        <v>0.04272428884026258</v>
       </c>
       <c r="X2">
-        <v>0.158505103908416</v>
+        <v>0.1353526061669405</v>
       </c>
       <c r="Y2">
-        <v>-0.1002978623452881</v>
+        <v>-0.09262831732667795</v>
       </c>
       <c r="Z2">
-        <v>0.7597284789611621</v>
+        <v>0.7692181403793411</v>
       </c>
       <c r="AA2">
-        <v>0.07783056346193486</v>
+        <v>0.06439730991322126</v>
       </c>
       <c r="AB2">
-        <v>0.05955566059230694</v>
+        <v>0.04801310384759721</v>
       </c>
       <c r="AC2">
-        <v>0.01827490286962792</v>
+        <v>0.01638420606562405</v>
       </c>
       <c r="AD2">
-        <v>4940.9</v>
+        <v>4782.4</v>
       </c>
       <c r="AE2">
-        <v>111.7378368026283</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>5052.637836802628</v>
+        <v>4782.4</v>
       </c>
       <c r="AG2">
-        <v>4982.537836802628</v>
+        <v>4725</v>
       </c>
       <c r="AH2">
-        <v>0.7130715181924629</v>
+        <v>0.716410755748633</v>
       </c>
       <c r="AI2">
-        <v>0.4774279289857611</v>
+        <v>0.4459737958688861</v>
       </c>
       <c r="AJ2">
-        <v>0.7102045391603932</v>
+        <v>0.7139511340112721</v>
       </c>
       <c r="AK2">
-        <v>0.4739434318122062</v>
+        <v>0.4429922839650856</v>
       </c>
       <c r="AL2">
-        <v>658.3</v>
+        <v>602.1</v>
       </c>
       <c r="AM2">
-        <v>658.3</v>
+        <v>602.1</v>
       </c>
       <c r="AN2">
-        <v>3.875823658613116</v>
+        <v>4.251022222222222</v>
       </c>
       <c r="AO2">
-        <v>1.717757861157527</v>
+        <v>1.690084703537618</v>
       </c>
       <c r="AP2">
-        <v>3.908485909007395</v>
+        <v>4.2</v>
       </c>
       <c r="AQ2">
-        <v>1.717757861157527</v>
+        <v>1.690084703537618</v>
       </c>
     </row>
     <row r="3">
@@ -728,49 +725,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.021</v>
+        <v>-0.0304</v>
       </c>
       <c r="E3">
-        <v>0.0244</v>
-      </c>
-      <c r="F3">
-        <v>-0.016</v>
+        <v>-0.04019999999999999</v>
       </c>
       <c r="G3">
-        <v>0.1554464251189049</v>
+        <v>0.1564073269638799</v>
       </c>
       <c r="H3">
-        <v>0.1554464251189049</v>
+        <v>0.1564073269638799</v>
       </c>
       <c r="I3">
-        <v>0.1478613140300677</v>
+        <v>0.1277573414018656</v>
       </c>
       <c r="J3">
-        <v>0.1024452361827463</v>
+        <v>0.08371787732601269</v>
       </c>
       <c r="K3">
-        <v>283.9</v>
+        <v>234.3</v>
       </c>
       <c r="L3">
-        <v>0.03659306806903574</v>
+        <v>0.02941582654329513</v>
       </c>
       <c r="M3">
-        <v>66.36239999999999</v>
+        <v>71.4931</v>
       </c>
       <c r="N3">
-        <v>0.03264099158919876</v>
+        <v>0.03776509428978923</v>
       </c>
       <c r="O3">
-        <v>0.2337527298344488</v>
+        <v>0.3051348698250106</v>
       </c>
       <c r="P3">
-        <v>66.36239999999999</v>
+        <v>71.4931</v>
       </c>
       <c r="Q3">
-        <v>0.03264099158919876</v>
+        <v>0.03776509428978923</v>
       </c>
       <c r="R3">
-        <v>0.2337527298344488</v>
+        <v>0.3051348698250106</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -779,73 +773,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>70.09999999999999</v>
+        <v>57.4</v>
       </c>
       <c r="V3">
-        <v>0.03447936648467857</v>
+        <v>0.03032063810680894</v>
       </c>
       <c r="W3">
-        <v>0.0582072415631279</v>
+        <v>0.04272428884026258</v>
       </c>
       <c r="X3">
-        <v>0.158505103908416</v>
+        <v>0.1353526061669405</v>
       </c>
       <c r="Y3">
-        <v>-0.1002978623452881</v>
+        <v>-0.09262831732667795</v>
       </c>
       <c r="Z3">
-        <v>0.7597284789611621</v>
+        <v>0.7692181403793411</v>
       </c>
       <c r="AA3">
-        <v>0.07783056346193486</v>
+        <v>0.06439730991322126</v>
       </c>
       <c r="AB3">
-        <v>0.05955566059230694</v>
+        <v>0.04801310384759721</v>
       </c>
       <c r="AC3">
-        <v>0.01827490286962792</v>
+        <v>0.01638420606562405</v>
       </c>
       <c r="AD3">
-        <v>4940.9</v>
+        <v>4782.4</v>
       </c>
       <c r="AE3">
-        <v>111.7378368026283</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>5052.637836802628</v>
+        <v>4782.4</v>
       </c>
       <c r="AG3">
-        <v>4982.537836802628</v>
+        <v>4725</v>
       </c>
       <c r="AH3">
-        <v>0.7130715181924629</v>
+        <v>0.716410755748633</v>
       </c>
       <c r="AI3">
-        <v>0.4774279289857611</v>
+        <v>0.4459737958688861</v>
       </c>
       <c r="AJ3">
-        <v>0.7102045391603932</v>
+        <v>0.7139511340112721</v>
       </c>
       <c r="AK3">
-        <v>0.4739434318122062</v>
+        <v>0.4429922839650856</v>
       </c>
       <c r="AL3">
-        <v>658.3</v>
+        <v>602.1</v>
       </c>
       <c r="AM3">
-        <v>658.3</v>
+        <v>602.1</v>
       </c>
       <c r="AN3">
-        <v>3.875823658613116</v>
+        <v>4.251022222222222</v>
       </c>
       <c r="AO3">
-        <v>1.717757861157527</v>
+        <v>1.690084703537618</v>
       </c>
       <c r="AP3">
-        <v>3.908485909007395</v>
+        <v>4.2</v>
       </c>
       <c r="AQ3">
-        <v>1.717757861157527</v>
+        <v>1.690084703537618</v>
       </c>
     </row>
   </sheetData>
